--- a/Code/Results/Cases/Case_3_203/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_203/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.343818483625483</v>
+        <v>0.9699704652908565</v>
       </c>
       <c r="C2">
-        <v>0.2025874418730211</v>
+        <v>0.1266191015981235</v>
       </c>
       <c r="D2">
-        <v>0.03920174908733998</v>
+        <v>0.05724020510061223</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.332880996514703</v>
+        <v>3.371857794526562</v>
       </c>
       <c r="G2">
-        <v>0.0008414653938600637</v>
+        <v>0.002581779450897264</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1708607815206022</v>
+        <v>0.2537046272738408</v>
       </c>
       <c r="K2">
-        <v>1.45274092112686</v>
+        <v>1.018363857192583</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4635812380282118</v>
+        <v>0.4264926444671744</v>
       </c>
       <c r="N2">
-        <v>2.144743896276637</v>
+        <v>3.476407650065909</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.176560009655304</v>
+        <v>0.9313606958920388</v>
       </c>
       <c r="C3">
-        <v>0.175965342836264</v>
+        <v>0.120506148101839</v>
       </c>
       <c r="D3">
-        <v>0.03413978528364936</v>
+        <v>0.05651891498867911</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.203246433776926</v>
+        <v>3.351252924252506</v>
       </c>
       <c r="G3">
-        <v>0.000848317316090856</v>
+        <v>0.00258606108607259</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1576575974687273</v>
+        <v>0.2517523326817326</v>
       </c>
       <c r="K3">
-        <v>1.269575543631703</v>
+        <v>0.9761220786593867</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.408862565761666</v>
+        <v>0.4150881845968755</v>
       </c>
       <c r="N3">
-        <v>2.148699058064111</v>
+        <v>3.480996978762818</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.075563609705654</v>
+        <v>0.9082488705025469</v>
       </c>
       <c r="C4">
-        <v>0.1598935340136478</v>
+        <v>0.1168355562707433</v>
       </c>
       <c r="D4">
-        <v>0.03106056117371025</v>
+        <v>0.05611064452490666</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.127052032332756</v>
+        <v>3.339962804262981</v>
       </c>
       <c r="G4">
-        <v>0.0008526487803716527</v>
+        <v>0.002588829293119789</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1498041618531687</v>
+        <v>0.2506700638824739</v>
       </c>
       <c r="K4">
-        <v>1.158976982355313</v>
+        <v>0.9508190341340992</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3758809096921709</v>
+        <v>0.4083395416244215</v>
       </c>
       <c r="N4">
-        <v>2.153178429573302</v>
+        <v>3.484575949773159</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.034788316123127</v>
+        <v>0.8989800109049497</v>
       </c>
       <c r="C5">
-        <v>0.1534048390648621</v>
+        <v>0.115360510851545</v>
       </c>
       <c r="D5">
-        <v>0.02981224638569557</v>
+        <v>0.05595300421003913</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.096797742913409</v>
+        <v>3.335704069768113</v>
       </c>
       <c r="G5">
-        <v>0.0008544461491528254</v>
+        <v>0.002589992493431316</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1466626870497763</v>
+        <v>0.2502583021302698</v>
       </c>
       <c r="K5">
-        <v>1.114324467970505</v>
+        <v>0.9406669266648464</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3625799819053057</v>
+        <v>0.4056531895677864</v>
       </c>
       <c r="N5">
-        <v>2.155495130288685</v>
+        <v>3.486225589350767</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.028039365628615</v>
+        <v>0.8974499427688158</v>
       </c>
       <c r="C6">
-        <v>0.1523308317670455</v>
+        <v>0.1151168320464819</v>
       </c>
       <c r="D6">
-        <v>0.02960533572022683</v>
+        <v>0.05592735655793746</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.091820419120168</v>
+        <v>3.335017564135399</v>
       </c>
       <c r="G6">
-        <v>0.0008547465772749883</v>
+        <v>0.002590187767192664</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1461444673159633</v>
+        <v>0.2501916970584901</v>
       </c>
       <c r="K6">
-        <v>1.106933708222499</v>
+        <v>0.9389907790089183</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3603793576249004</v>
+        <v>0.4052109738682219</v>
       </c>
       <c r="N6">
-        <v>2.155908810978801</v>
+        <v>3.486511051581303</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.075012213619232</v>
+        <v>0.908123262717595</v>
       </c>
       <c r="C7">
-        <v>0.1598057899372947</v>
+        <v>0.1168155793617984</v>
       </c>
       <c r="D7">
-        <v>0.03104370063374517</v>
+        <v>0.05610848312905148</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.126640867338878</v>
+        <v>3.339903984740729</v>
       </c>
       <c r="G7">
-        <v>0.0008526728884812318</v>
+        <v>0.002588844838039164</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1497615626542483</v>
+        <v>0.2506643922128475</v>
       </c>
       <c r="K7">
-        <v>1.158373159218087</v>
+        <v>0.9506814754188611</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3757009841433145</v>
+        <v>0.4083030543582638</v>
       </c>
       <c r="N7">
-        <v>2.153207715034725</v>
+        <v>3.484597423603617</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.28576587452946</v>
+        <v>0.9565342725247774</v>
       </c>
       <c r="C8">
-        <v>0.1933460423544489</v>
+        <v>0.1244941302330034</v>
       </c>
       <c r="D8">
-        <v>0.03744992298519634</v>
+        <v>0.05698434055022972</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.28743958129148</v>
+        <v>3.364470524913756</v>
       </c>
       <c r="G8">
-        <v>0.0008438027436325922</v>
+        <v>0.002583226922594273</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1662527080791918</v>
+        <v>0.2530072997707364</v>
       </c>
       <c r="K8">
-        <v>1.389165854619222</v>
+        <v>1.003667236643111</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4445767448934177</v>
+        <v>0.4225076988141439</v>
       </c>
       <c r="N8">
-        <v>2.145666734958695</v>
+        <v>3.477831955762724</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.714825805591772</v>
+        <v>1.056200432378915</v>
       </c>
       <c r="C9">
-        <v>0.2617036327787616</v>
+        <v>0.1402126111896393</v>
       </c>
       <c r="D9">
-        <v>0.05027903108629062</v>
+        <v>0.0589752601796647</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.632701072772988</v>
+        <v>3.423464322003198</v>
       </c>
       <c r="G9">
-        <v>0.0008273467247795763</v>
+        <v>0.002573310029240289</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2008407202422759</v>
+        <v>0.2585267217695986</v>
       </c>
       <c r="K9">
-        <v>1.859111622776254</v>
+        <v>1.112616739494683</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5852918262515132</v>
+        <v>0.4523798252027902</v>
       </c>
       <c r="N9">
-        <v>2.148349543649175</v>
+        <v>3.470614593291714</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.043160623426388</v>
+        <v>1.132338090286964</v>
       </c>
       <c r="C10">
-        <v>0.3141318248606524</v>
+        <v>0.1521708087757929</v>
       </c>
       <c r="D10">
-        <v>0.05992505179744967</v>
+        <v>0.06060328924332481</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.90912124899225</v>
+        <v>3.473435298741549</v>
       </c>
       <c r="G10">
-        <v>0.0008157550522948802</v>
+        <v>0.002566687291197121</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2279884723122905</v>
+        <v>0.2631479733677082</v>
       </c>
       <c r="K10">
-        <v>2.218890405400145</v>
+        <v>1.19577157389233</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.6932898151311733</v>
+        <v>0.4755644205214935</v>
       </c>
       <c r="N10">
-        <v>2.162803255517531</v>
+        <v>3.469016834917738</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.196244035764721</v>
+        <v>1.167614299957506</v>
       </c>
       <c r="C11">
-        <v>0.3386199722406218</v>
+        <v>0.1577014948059059</v>
       </c>
       <c r="D11">
-        <v>0.06437553027053156</v>
+        <v>0.06137955143382356</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.040938648885316</v>
+        <v>3.497615423716297</v>
       </c>
       <c r="G11">
-        <v>0.0008105718727314022</v>
+        <v>0.002563816893465187</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2408065567271649</v>
+        <v>0.265373776798242</v>
       </c>
       <c r="K11">
-        <v>2.386693961207357</v>
+        <v>1.234284215565452</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.7437146435555206</v>
+        <v>0.4863823700458951</v>
       </c>
       <c r="N11">
-        <v>2.1725485619625</v>
+        <v>3.469098274099323</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.254828813550148</v>
+        <v>1.181064986752062</v>
       </c>
       <c r="C12">
-        <v>0.347999602200332</v>
+        <v>0.1598089868962802</v>
       </c>
       <c r="D12">
-        <v>0.06607110710860553</v>
+        <v>0.06167860344250897</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.091832722615294</v>
+        <v>3.50698051456385</v>
       </c>
       <c r="G12">
-        <v>0.0008086204075305796</v>
+        <v>0.002562750295784809</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2457362514623327</v>
+        <v>0.2662344302751052</v>
       </c>
       <c r="K12">
-        <v>2.450923127004074</v>
+        <v>1.248966923486762</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.7630226796795156</v>
+        <v>0.4905179375119104</v>
       </c>
       <c r="N12">
-        <v>2.176738008143161</v>
+        <v>3.469245632201421</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.242182794556697</v>
+        <v>1.178164029983748</v>
       </c>
       <c r="C13">
-        <v>0.3459745424131313</v>
+        <v>0.1593545150404054</v>
       </c>
       <c r="D13">
-        <v>0.06570545517496384</v>
+        <v>0.06161397096561672</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.080826505943037</v>
+        <v>3.504954291030174</v>
       </c>
       <c r="G13">
-        <v>0.0008090402160627899</v>
+        <v>0.002562979102975574</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2446710404476278</v>
+        <v>0.2660482816000922</v>
       </c>
       <c r="K13">
-        <v>2.437058188514072</v>
+        <v>1.245800340464342</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.7588544054941906</v>
+        <v>0.4896255316784064</v>
       </c>
       <c r="N13">
-        <v>2.175812798236294</v>
+        <v>3.469208709096549</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.201051017298937</v>
+        <v>1.168719043991189</v>
       </c>
       <c r="C14">
-        <v>0.3393894154590669</v>
+        <v>0.1578746156241948</v>
       </c>
       <c r="D14">
-        <v>0.06451481253670721</v>
+        <v>0.06140405261456294</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.045105502167218</v>
+        <v>3.498381712518352</v>
       </c>
       <c r="G14">
-        <v>0.0008104111081341792</v>
+        <v>0.002563728736484708</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2412105559303939</v>
+        <v>0.2654442266194366</v>
       </c>
       <c r="K14">
-        <v>2.391963839630392</v>
+        <v>1.235490188859387</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.7452986892942022</v>
+        <v>0.4867218228468744</v>
       </c>
       <c r="N14">
-        <v>2.172882962673128</v>
+        <v>3.469108060444114</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.175939285154186</v>
+        <v>1.162945750471863</v>
       </c>
       <c r="C15">
-        <v>0.3353701692333857</v>
+        <v>0.1569698482380488</v>
       </c>
       <c r="D15">
-        <v>0.06378688862862703</v>
+        <v>0.06127613463623049</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.023355971223566</v>
+        <v>3.494382995744672</v>
       </c>
       <c r="G15">
-        <v>0.0008112522382472404</v>
+        <v>0.002564190556970648</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2391010405852398</v>
+        <v>0.2650765429082043</v>
       </c>
       <c r="K15">
-        <v>2.364434386458925</v>
+        <v>1.229187799587635</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.737024039475827</v>
+        <v>0.484948303718312</v>
       </c>
       <c r="N15">
-        <v>2.171154716803812</v>
+        <v>3.469061593151366</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.033237825446349</v>
+        <v>1.130045619021075</v>
       </c>
       <c r="C16">
-        <v>0.3125455321001311</v>
+        <v>0.1518112000748602</v>
       </c>
       <c r="D16">
-        <v>0.0596355672210791</v>
+        <v>0.06055327375300124</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.900637545823884</v>
+        <v>3.471884241169136</v>
       </c>
       <c r="G16">
-        <v>0.0008160954584182424</v>
+        <v>0.002566877733310176</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2271609050086028</v>
+        <v>0.2630050002051831</v>
       </c>
       <c r="K16">
-        <v>2.208014842809092</v>
+        <v>1.19326849266119</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.6900227473117084</v>
+        <v>0.4748629029273914</v>
       </c>
       <c r="N16">
-        <v>2.162233759891961</v>
+        <v>3.46902780184007</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.946702897289072</v>
+        <v>1.11002672335627</v>
       </c>
       <c r="C17">
-        <v>0.2987168086516476</v>
+        <v>0.1486698586175805</v>
       </c>
       <c r="D17">
-        <v>0.05710574484729847</v>
+        <v>0.06011893484584618</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.826979991178533</v>
+        <v>3.458453131723388</v>
       </c>
       <c r="G17">
-        <v>0.0008190885341324795</v>
+        <v>0.002568562605021748</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2199617047565567</v>
+        <v>0.2617658400763503</v>
       </c>
       <c r="K17">
-        <v>2.11317789172918</v>
+        <v>1.171408833975107</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.6615391731510982</v>
+        <v>0.4687453232901362</v>
       </c>
       <c r="N17">
-        <v>2.157602331763698</v>
+        <v>3.46921429406197</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.897275381799062</v>
+        <v>1.098572687202534</v>
       </c>
       <c r="C18">
-        <v>0.2908220009745719</v>
+        <v>0.1468715877996374</v>
       </c>
       <c r="D18">
-        <v>0.0556564516519984</v>
+        <v>0.05987247319336575</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.78517881023518</v>
+        <v>3.450864189936155</v>
       </c>
       <c r="G18">
-        <v>0.0008208186440679064</v>
+        <v>0.002569545100599134</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2158644542800658</v>
+        <v>0.2610647379422062</v>
       </c>
       <c r="K18">
-        <v>2.059013753902661</v>
+        <v>1.158900202515781</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.6452763930733951</v>
+        <v>0.4652521729519989</v>
       </c>
       <c r="N18">
-        <v>2.155234004457625</v>
+        <v>3.469397619732817</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.880597035724122</v>
+        <v>1.094704898374374</v>
       </c>
       <c r="C19">
-        <v>0.2881586843322452</v>
+        <v>0.1462641895681998</v>
       </c>
       <c r="D19">
-        <v>0.05516670352166386</v>
+        <v>0.05978960327738037</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.771119629857935</v>
+        <v>3.448318099225077</v>
       </c>
       <c r="G19">
-        <v>0.0008214059491704988</v>
+        <v>0.002569880061798269</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2144844315538847</v>
+        <v>0.2608293536611157</v>
       </c>
       <c r="K19">
-        <v>2.040737981848622</v>
+        <v>1.154676058196088</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.639789968786566</v>
+        <v>0.4640738337469443</v>
       </c>
       <c r="N19">
-        <v>2.154481647902969</v>
+        <v>3.469472745282374</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.955878418972247</v>
+        <v>1.112151526375669</v>
       </c>
       <c r="C20">
-        <v>0.3001826809419015</v>
+        <v>0.149003374766977</v>
       </c>
       <c r="D20">
-        <v>0.0573744401466314</v>
+        <v>0.06016482357996011</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.834761797949483</v>
+        <v>3.459868789477895</v>
       </c>
       <c r="G20">
-        <v>0.0008187690402713067</v>
+        <v>0.002568381861220326</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2207235076849088</v>
+        <v>0.2618965469826264</v>
       </c>
       <c r="K20">
-        <v>2.123233124011563</v>
+        <v>1.173729157890108</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.6645586702674677</v>
+        <v>0.4693939085298169</v>
       </c>
       <c r="N20">
-        <v>2.15806446879634</v>
+        <v>3.469186567649885</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.213115033893132</v>
+        <v>1.171490757260926</v>
       </c>
       <c r="C21">
-        <v>0.3413206110228089</v>
+        <v>0.1583089406720148</v>
       </c>
       <c r="D21">
-        <v>0.06486424324164375</v>
+        <v>0.0614655725916009</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.05557020422836</v>
+        <v>3.500306573738271</v>
       </c>
       <c r="G21">
-        <v>0.0008100081513475721</v>
+        <v>0.002563507999107712</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2422248564807177</v>
+        <v>0.2656211692268045</v>
       </c>
       <c r="K21">
-        <v>2.405189766127393</v>
+        <v>1.238515846369552</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.7492743157472006</v>
+        <v>0.4875736524253114</v>
       </c>
       <c r="N21">
-        <v>2.173729612434784</v>
+        <v>3.469134458759612</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.384864692425651</v>
+        <v>1.210810771841579</v>
       </c>
       <c r="C22">
-        <v>0.3688354500366131</v>
+        <v>0.1644673010187887</v>
       </c>
       <c r="D22">
-        <v>0.06981986435992837</v>
+        <v>0.06234539076115908</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.205636828146339</v>
+        <v>3.527951076397585</v>
       </c>
       <c r="G22">
-        <v>0.0008043473400170356</v>
+        <v>0.002560441272117272</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2567234082878826</v>
+        <v>0.268159129129856</v>
       </c>
       <c r="K22">
-        <v>2.593510217660906</v>
+        <v>1.281433752559025</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.8058984697206455</v>
+        <v>0.4996827748366925</v>
       </c>
       <c r="N22">
-        <v>2.186900503366076</v>
+        <v>3.469779702292115</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.292837689302416</v>
+        <v>1.189775607271258</v>
       </c>
       <c r="C23">
-        <v>0.3540874215931353</v>
+        <v>0.1611734298132887</v>
       </c>
       <c r="D23">
-        <v>0.06716894795223993</v>
+        <v>0.06187310719842287</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.12497928239722</v>
+        <v>3.513085289254377</v>
       </c>
       <c r="G23">
-        <v>0.0008073632659865399</v>
+        <v>0.002562067222699017</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2489414175848168</v>
+        <v>0.2667950762828895</v>
       </c>
       <c r="K23">
-        <v>2.492597368570273</v>
+        <v>1.258474850414103</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.7755523749460167</v>
+        <v>0.4931990641651751</v>
       </c>
       <c r="N23">
-        <v>2.179587037317248</v>
+        <v>3.469373070280909</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.951729166846121</v>
+        <v>1.111190731337842</v>
       </c>
       <c r="C24">
-        <v>0.2995197882705725</v>
+        <v>0.1488525680502732</v>
       </c>
       <c r="D24">
-        <v>0.05725294710243389</v>
+        <v>0.06014406717156362</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.831241951666783</v>
+        <v>3.459228357027257</v>
       </c>
       <c r="G24">
-        <v>0.0008189134542193831</v>
+        <v>0.002568463532511103</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2203789674259582</v>
+        <v>0.2618374191715986</v>
       </c>
       <c r="K24">
-        <v>2.118686042357808</v>
+        <v>1.172679956388805</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.6631932062516341</v>
+        <v>0.4691006086167206</v>
       </c>
       <c r="N24">
-        <v>2.157854623042979</v>
+        <v>3.469198865697734</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.596724424268558</v>
+        <v>1.028728601517713</v>
       </c>
       <c r="C25">
-        <v>0.2428730037944433</v>
+        <v>0.1358888823014013</v>
       </c>
       <c r="D25">
-        <v>0.04677420670763155</v>
+        <v>0.05840753894162987</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.535654075669228</v>
+        <v>3.406343351239116</v>
       </c>
       <c r="G25">
-        <v>0.0008317052717860032</v>
+        <v>0.002575875823025202</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.191207339820977</v>
+        <v>0.2569343176167962</v>
       </c>
       <c r="K25">
-        <v>1.72973703811806</v>
+        <v>1.082599436514357</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.5465055134291745</v>
+        <v>0.4440818859253639</v>
       </c>
       <c r="N25">
-        <v>2.145575027515548</v>
+        <v>3.471917703125058</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_203/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_203/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9699704652908565</v>
+        <v>1.343818483625597</v>
       </c>
       <c r="C2">
-        <v>0.1266191015981235</v>
+        <v>0.2025874418727653</v>
       </c>
       <c r="D2">
-        <v>0.05724020510061223</v>
+        <v>0.03920174908732577</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>3.371857794526562</v>
+        <v>2.332880996514675</v>
       </c>
       <c r="G2">
-        <v>0.002581779450897264</v>
+        <v>0.0008414653937333875</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2537046272738408</v>
+        <v>0.1708607815205099</v>
       </c>
       <c r="K2">
-        <v>1.018363857192583</v>
+        <v>1.452740921126804</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4264926444671744</v>
+        <v>0.463581238028226</v>
       </c>
       <c r="N2">
-        <v>3.476407650065909</v>
+        <v>2.144743896276623</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9313606958920388</v>
+        <v>1.176560009655077</v>
       </c>
       <c r="C3">
-        <v>0.120506148101839</v>
+        <v>0.1759653428362782</v>
       </c>
       <c r="D3">
-        <v>0.05651891498867911</v>
+        <v>0.03413978528366357</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>3.351252924252506</v>
+        <v>2.203246433776897</v>
       </c>
       <c r="G3">
-        <v>0.00258606108607259</v>
+        <v>0.0008483173161814558</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2517523326817326</v>
+        <v>0.1576575974687273</v>
       </c>
       <c r="K3">
-        <v>0.9761220786593867</v>
+        <v>1.269575543631731</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4150881845968755</v>
+        <v>0.4088625657616731</v>
       </c>
       <c r="N3">
-        <v>3.480996978762818</v>
+        <v>2.148699058064082</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9082488705025469</v>
+        <v>1.075563609705711</v>
       </c>
       <c r="C4">
-        <v>0.1168355562707433</v>
+        <v>0.1598935340136904</v>
       </c>
       <c r="D4">
-        <v>0.05611064452490666</v>
+        <v>0.03106056117372447</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>3.339962804262981</v>
+        <v>2.127052032332713</v>
       </c>
       <c r="G4">
-        <v>0.002588829293119789</v>
+        <v>0.0008526487803729604</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2506700638824739</v>
+        <v>0.1498041618531687</v>
       </c>
       <c r="K4">
-        <v>0.9508190341340992</v>
+        <v>1.158976982355256</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4083395416244215</v>
+        <v>0.375880909692178</v>
       </c>
       <c r="N4">
-        <v>3.484575949773159</v>
+        <v>2.153178429573231</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8989800109049497</v>
+        <v>1.034788316122956</v>
       </c>
       <c r="C5">
-        <v>0.115360510851545</v>
+        <v>0.1534048390647342</v>
       </c>
       <c r="D5">
-        <v>0.05595300421003913</v>
+        <v>0.02981224638593716</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>3.335704069768113</v>
+        <v>2.096797742913409</v>
       </c>
       <c r="G5">
-        <v>0.002589992493431316</v>
+        <v>0.0008544461491694318</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2502583021302698</v>
+        <v>0.1466626870497123</v>
       </c>
       <c r="K5">
-        <v>0.9406669266648464</v>
+        <v>1.114324467970562</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4056531895677864</v>
+        <v>0.3625799819052986</v>
       </c>
       <c r="N5">
-        <v>3.486225589350767</v>
+        <v>2.155495130288685</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8974499427688158</v>
+        <v>1.028039365628644</v>
       </c>
       <c r="C6">
-        <v>0.1151168320464819</v>
+        <v>0.1523308317670455</v>
       </c>
       <c r="D6">
-        <v>0.05592735655793746</v>
+        <v>0.0296053357200492</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>3.335017564135399</v>
+        <v>2.09182041912014</v>
       </c>
       <c r="G6">
-        <v>0.002590187767192664</v>
+        <v>0.000854746577273733</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2501916970584901</v>
+        <v>0.1461444673159988</v>
       </c>
       <c r="K6">
-        <v>0.9389907790089183</v>
+        <v>1.106933708222527</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4052109738682219</v>
+        <v>0.3603793576249075</v>
       </c>
       <c r="N6">
-        <v>3.486511051581303</v>
+        <v>2.155908810978787</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.908123262717595</v>
+        <v>1.075012213619175</v>
       </c>
       <c r="C7">
-        <v>0.1168155793617984</v>
+        <v>0.159805789936982</v>
       </c>
       <c r="D7">
-        <v>0.05610848312905148</v>
+        <v>0.03104370063375228</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>3.339903984740729</v>
+        <v>2.126640867338878</v>
       </c>
       <c r="G7">
-        <v>0.002588844838039164</v>
+        <v>0.0008526728884386746</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2506643922128475</v>
+        <v>0.1497615626542625</v>
       </c>
       <c r="K7">
-        <v>0.9506814754188611</v>
+        <v>1.158373159218087</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4083030543582638</v>
+        <v>0.3757009841433145</v>
       </c>
       <c r="N7">
-        <v>3.484597423603617</v>
+        <v>2.153207715034625</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9565342725247774</v>
+        <v>1.285765874529517</v>
       </c>
       <c r="C8">
-        <v>0.1244941302330034</v>
+        <v>0.1933460423545057</v>
       </c>
       <c r="D8">
-        <v>0.05698434055022972</v>
+        <v>0.03744992298508265</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>3.364470524913756</v>
+        <v>2.287439581291466</v>
       </c>
       <c r="G8">
-        <v>0.002583226922594273</v>
+        <v>0.000843802743587384</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2530072997707364</v>
+        <v>0.1662527080790994</v>
       </c>
       <c r="K8">
-        <v>1.003667236643111</v>
+        <v>1.389165854619336</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4225076988141439</v>
+        <v>0.4445767448934035</v>
       </c>
       <c r="N8">
-        <v>3.477831955762724</v>
+        <v>2.145666734958695</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.056200432378915</v>
+        <v>1.714825805591545</v>
       </c>
       <c r="C9">
-        <v>0.1402126111896393</v>
+        <v>0.2617036327789037</v>
       </c>
       <c r="D9">
-        <v>0.0589752601796647</v>
+        <v>0.05027903108619114</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.423464322003198</v>
+        <v>2.632701072772988</v>
       </c>
       <c r="G9">
-        <v>0.002573310029240289</v>
+        <v>0.0008273467247295052</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2585267217695986</v>
+        <v>0.2008407202422475</v>
       </c>
       <c r="K9">
-        <v>1.112616739494683</v>
+        <v>1.859111622776311</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4523798252027902</v>
+        <v>0.5852918262515203</v>
       </c>
       <c r="N9">
-        <v>3.470614593291714</v>
+        <v>2.148349543649246</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.132338090286964</v>
+        <v>2.043160623426502</v>
       </c>
       <c r="C10">
-        <v>0.1521708087757929</v>
+        <v>0.3141318248606524</v>
       </c>
       <c r="D10">
-        <v>0.06060328924332481</v>
+        <v>0.05992505179745677</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.473435298741549</v>
+        <v>2.909121248992278</v>
       </c>
       <c r="G10">
-        <v>0.002566687291197121</v>
+        <v>0.000815755052296363</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2631479733677082</v>
+        <v>0.2279884723123189</v>
       </c>
       <c r="K10">
-        <v>1.19577157389233</v>
+        <v>2.218890405400089</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4755644205214935</v>
+        <v>0.6932898151311662</v>
       </c>
       <c r="N10">
-        <v>3.469016834917738</v>
+        <v>2.162803255517588</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.167614299957506</v>
+        <v>2.196244035764721</v>
       </c>
       <c r="C11">
-        <v>0.1577014948059059</v>
+        <v>0.3386199722406218</v>
       </c>
       <c r="D11">
-        <v>0.06137955143382356</v>
+        <v>0.06437553027063814</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.497615423716297</v>
+        <v>3.040938648885373</v>
       </c>
       <c r="G11">
-        <v>0.002563816893465187</v>
+        <v>0.0008105718727310423</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.265373776798242</v>
+        <v>0.2408065567271507</v>
       </c>
       <c r="K11">
-        <v>1.234284215565452</v>
+        <v>2.386693961207271</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4863823700458951</v>
+        <v>0.7437146435555277</v>
       </c>
       <c r="N11">
-        <v>3.469098274099323</v>
+        <v>2.172548561962543</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.181064986752062</v>
+        <v>2.254828813550148</v>
       </c>
       <c r="C12">
-        <v>0.1598089868962802</v>
+        <v>0.347999602200332</v>
       </c>
       <c r="D12">
-        <v>0.06167860344250897</v>
+        <v>0.06607110710845632</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.50698051456385</v>
+        <v>3.091832722615322</v>
       </c>
       <c r="G12">
-        <v>0.002562750295784809</v>
+        <v>0.0008086204074692133</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2662344302751052</v>
+        <v>0.245736251462418</v>
       </c>
       <c r="K12">
-        <v>1.248966923486762</v>
+        <v>2.450923127004046</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4905179375119104</v>
+        <v>0.7630226796795299</v>
       </c>
       <c r="N12">
-        <v>3.469245632201421</v>
+        <v>2.176738008143204</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.178164029983748</v>
+        <v>2.242182794556868</v>
       </c>
       <c r="C13">
-        <v>0.1593545150404054</v>
+        <v>0.3459745424126481</v>
       </c>
       <c r="D13">
-        <v>0.06161397096561672</v>
+        <v>0.06570545517509174</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.504954291030174</v>
+        <v>3.080826505943037</v>
       </c>
       <c r="G13">
-        <v>0.002562979102975574</v>
+        <v>0.0008090402161783429</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2660482816000922</v>
+        <v>0.2446710404476278</v>
       </c>
       <c r="K13">
-        <v>1.245800340464342</v>
+        <v>2.437058188514101</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4896255316784064</v>
+        <v>0.7588544054941977</v>
       </c>
       <c r="N13">
-        <v>3.469208709096549</v>
+        <v>2.175812798236308</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.168719043991189</v>
+        <v>2.201051017299051</v>
       </c>
       <c r="C14">
-        <v>0.1578746156241948</v>
+        <v>0.3393894154593227</v>
       </c>
       <c r="D14">
-        <v>0.06140405261456294</v>
+        <v>0.06451481253693458</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.498381712518352</v>
+        <v>3.045105502167161</v>
       </c>
       <c r="G14">
-        <v>0.002563728736484708</v>
+        <v>0.0008104111081902669</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2654442266194366</v>
+        <v>0.2412105559304365</v>
       </c>
       <c r="K14">
-        <v>1.235490188859387</v>
+        <v>2.391963839630336</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4867218228468744</v>
+        <v>0.7452986892941951</v>
       </c>
       <c r="N14">
-        <v>3.469108060444114</v>
+        <v>2.172882962673171</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.162945750471863</v>
+        <v>2.175939285154186</v>
       </c>
       <c r="C15">
-        <v>0.1569698482380488</v>
+        <v>0.3353701692336131</v>
       </c>
       <c r="D15">
-        <v>0.06127613463623049</v>
+        <v>0.06378688862852044</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.494382995744672</v>
+        <v>3.023355971223538</v>
       </c>
       <c r="G15">
-        <v>0.002564190556970648</v>
+        <v>0.0008112522383062482</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2650765429082043</v>
+        <v>0.2391010405852256</v>
       </c>
       <c r="K15">
-        <v>1.229187799587635</v>
+        <v>2.364434386458896</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.484948303718312</v>
+        <v>0.7370240394758127</v>
       </c>
       <c r="N15">
-        <v>3.469061593151366</v>
+        <v>2.171154716803798</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.130045619021075</v>
+        <v>2.033237825446122</v>
       </c>
       <c r="C16">
-        <v>0.1518112000748602</v>
+        <v>0.3125455320999606</v>
       </c>
       <c r="D16">
-        <v>0.06055327375300124</v>
+        <v>0.05963556722132779</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.471884241169136</v>
+        <v>2.900637545823884</v>
       </c>
       <c r="G16">
-        <v>0.002566877733310176</v>
+        <v>0.0008160954584205882</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2630050002051831</v>
+        <v>0.2271609050087733</v>
       </c>
       <c r="K16">
-        <v>1.19326849266119</v>
+        <v>2.208014842809206</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4748629029273914</v>
+        <v>0.6900227473116871</v>
       </c>
       <c r="N16">
-        <v>3.46902780184007</v>
+        <v>2.162233759891905</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.11002672335627</v>
+        <v>1.946702897288958</v>
       </c>
       <c r="C17">
-        <v>0.1486698586175805</v>
+        <v>0.2987168086518466</v>
       </c>
       <c r="D17">
-        <v>0.06011893484584618</v>
+        <v>0.05710574484739794</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.458453131723388</v>
+        <v>2.826979991178547</v>
       </c>
       <c r="G17">
-        <v>0.002568562605021748</v>
+        <v>0.0008190885341868933</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2617658400763503</v>
+        <v>0.2199617047566704</v>
       </c>
       <c r="K17">
-        <v>1.171408833975107</v>
+        <v>2.113177891729208</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4687453232901362</v>
+        <v>0.6615391731510911</v>
       </c>
       <c r="N17">
-        <v>3.46921429406197</v>
+        <v>2.157602331763741</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.098572687202534</v>
+        <v>1.897275381799204</v>
       </c>
       <c r="C18">
-        <v>0.1468715877996374</v>
+        <v>0.2908220009747708</v>
       </c>
       <c r="D18">
-        <v>0.05987247319336575</v>
+        <v>0.05565645165189181</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.450864189936155</v>
+        <v>2.785178810235195</v>
       </c>
       <c r="G18">
-        <v>0.002569545100599134</v>
+        <v>0.0008208186441266468</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2610647379422062</v>
+        <v>0.2158644542801369</v>
       </c>
       <c r="K18">
-        <v>1.158900202515781</v>
+        <v>2.059013753902548</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4652521729519989</v>
+        <v>0.6452763930733809</v>
       </c>
       <c r="N18">
-        <v>3.469397619732817</v>
+        <v>2.155234004457569</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.094704898374374</v>
+        <v>1.880597035724151</v>
       </c>
       <c r="C19">
-        <v>0.1462641895681998</v>
+        <v>0.2881586843324726</v>
       </c>
       <c r="D19">
-        <v>0.05978960327738037</v>
+        <v>0.05516670352143649</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.448318099225077</v>
+        <v>2.771119629857893</v>
       </c>
       <c r="G19">
-        <v>0.002569880061798269</v>
+        <v>0.0008214059492349576</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2608293536611157</v>
+        <v>0.2144844315538847</v>
       </c>
       <c r="K19">
-        <v>1.154676058196088</v>
+        <v>2.040737981848565</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4640738337469443</v>
+        <v>0.6397899687865802</v>
       </c>
       <c r="N19">
-        <v>3.469472745282374</v>
+        <v>2.154481647902955</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.112151526375669</v>
+        <v>1.955878418972304</v>
       </c>
       <c r="C20">
-        <v>0.149003374766977</v>
+        <v>0.3001826809414467</v>
       </c>
       <c r="D20">
-        <v>0.06016482357996011</v>
+        <v>0.05737444014661719</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.459868789477895</v>
+        <v>2.834761797949483</v>
       </c>
       <c r="G20">
-        <v>0.002568381861220326</v>
+        <v>0.0008187690403857707</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2618965469826264</v>
+        <v>0.2207235076849514</v>
       </c>
       <c r="K20">
-        <v>1.173729157890108</v>
+        <v>2.12323312401162</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4693939085298169</v>
+        <v>0.6645586702674606</v>
       </c>
       <c r="N20">
-        <v>3.469186567649885</v>
+        <v>2.158064468796269</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.171490757260926</v>
+        <v>2.213115033893246</v>
       </c>
       <c r="C21">
-        <v>0.1583089406720148</v>
+        <v>0.3413206110230647</v>
       </c>
       <c r="D21">
-        <v>0.0614655725916009</v>
+        <v>0.06486424324141637</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.500306573738271</v>
+        <v>3.055570204228331</v>
       </c>
       <c r="G21">
-        <v>0.002563507999107712</v>
+        <v>0.0008100081512892237</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2656211692268045</v>
+        <v>0.2422248564807177</v>
       </c>
       <c r="K21">
-        <v>1.238515846369552</v>
+        <v>2.405189766127393</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4875736524253114</v>
+        <v>0.7492743157472148</v>
       </c>
       <c r="N21">
-        <v>3.469134458759612</v>
+        <v>2.173729612434755</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.210810771841579</v>
+        <v>2.384864692425481</v>
       </c>
       <c r="C22">
-        <v>0.1644673010187887</v>
+        <v>0.3688354500366131</v>
       </c>
       <c r="D22">
-        <v>0.06234539076115908</v>
+        <v>0.06981986436015575</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.527951076397585</v>
+        <v>3.205636828146311</v>
       </c>
       <c r="G22">
-        <v>0.002560441272117272</v>
+        <v>0.0008043473400755134</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.268159129129856</v>
+        <v>0.2567234082879111</v>
       </c>
       <c r="K22">
-        <v>1.281433752559025</v>
+        <v>2.593510217660821</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.4996827748366925</v>
+        <v>0.8058984697206597</v>
       </c>
       <c r="N22">
-        <v>3.469779702292115</v>
+        <v>2.186900503366076</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.189775607271258</v>
+        <v>2.292837689302246</v>
       </c>
       <c r="C23">
-        <v>0.1611734298132887</v>
+        <v>0.3540874215933911</v>
       </c>
       <c r="D23">
-        <v>0.06187310719842287</v>
+        <v>0.06716894795223283</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.513085289254377</v>
+        <v>3.124979282397248</v>
       </c>
       <c r="G23">
-        <v>0.002562067222699017</v>
+        <v>0.0008073632661013331</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2667950762828895</v>
+        <v>0.2489414175848452</v>
       </c>
       <c r="K23">
-        <v>1.258474850414103</v>
+        <v>2.492597368570301</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4931990641651751</v>
+        <v>0.7755523749460238</v>
       </c>
       <c r="N23">
-        <v>3.469373070280909</v>
+        <v>2.179587037317248</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.111190731337842</v>
+        <v>1.951729166846008</v>
       </c>
       <c r="C24">
-        <v>0.1488525680502732</v>
+        <v>0.2995197882705725</v>
       </c>
       <c r="D24">
-        <v>0.06014406717156362</v>
+        <v>0.05725294710243389</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.459228357027257</v>
+        <v>2.831241951666783</v>
       </c>
       <c r="G24">
-        <v>0.002568463532511103</v>
+        <v>0.0008189134542183998</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2618374191715986</v>
+        <v>0.2203789674259866</v>
       </c>
       <c r="K24">
-        <v>1.172679956388805</v>
+        <v>2.11868604235795</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4691006086167206</v>
+        <v>0.6631932062516341</v>
       </c>
       <c r="N24">
-        <v>3.469198865697734</v>
+        <v>2.157854623042965</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.028728601517713</v>
+        <v>1.596724424268558</v>
       </c>
       <c r="C25">
-        <v>0.1358888823014013</v>
+        <v>0.2428730037946423</v>
       </c>
       <c r="D25">
-        <v>0.05840753894162987</v>
+        <v>0.04677420670775234</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.406343351239116</v>
+        <v>2.535654075669228</v>
       </c>
       <c r="G25">
-        <v>0.002575875823025202</v>
+        <v>0.00083170527167713</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2569343176167962</v>
+        <v>0.1912073398209841</v>
       </c>
       <c r="K25">
-        <v>1.082599436514357</v>
+        <v>1.729737038118031</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4440818859253639</v>
+        <v>0.5465055134291745</v>
       </c>
       <c r="N25">
-        <v>3.471917703125058</v>
+        <v>2.145575027515491</v>
       </c>
       <c r="O25">
         <v>0</v>
